--- a/HIS_WebApi/excel/excel_emg_tradding.xlsx
+++ b/HIS_WebApi/excel/excel_emg_tradding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Pharmacy-master\HIS_WebApi\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0AFF57-A137-4A3C-9F83-5717BC9BD53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B50E1D6-CFC7-4422-A68A-60A45D7FDC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C037633-A129-4C06-A220-DA1929D47724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0589F860-228F-4E9C-9EDF-967586CF270A}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,96 +20,126 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>藥碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>藥名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盤點量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>RIT01</t>
+  </si>
+  <si>
+    <t>RITALIN TAB 10 MG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Methylphenidate </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期時間</t>
+  </si>
+  <si>
+    <t>最小單位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>領藥號/病房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>類別</t>
+  </si>
+  <si>
+    <t>總消耗量</t>
+  </si>
+  <si>
+    <t>病人姓名</t>
+  </si>
+  <si>
+    <t>-728</t>
+  </si>
+  <si>
+    <t>病歷號</t>
+  </si>
+  <si>
+    <t>管制級別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥品許可證字號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>製造廠名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調劑人</t>
+  </si>
+  <si>
+    <t>藥師證字號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易量</t>
+  </si>
+  <si>
+    <t>起始時間</t>
   </si>
   <si>
     <t>結束時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管制藥結存表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起始時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>領藥號/病房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病歷號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>調劑人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>結存量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>總消耗量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-04 23:59:59</t>
   </si>
   <si>
     <t>收支原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>備註</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1-3級管制藥品收支結存簿冊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -120,16 +150,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -137,19 +174,10 @@
     <font>
       <b/>
       <sz val="26"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -197,6 +225,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -230,35 +267,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,129 +610,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E349CEA1-2E08-4B28-A116-0FA4446B4D1A}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF86550-6363-426B-ACC7-02A0BC37DB28}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="12" width="47.75" customWidth="1"/>
+    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="41.75" customWidth="1"/>
+    <col min="12" max="12" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+    <row r="1" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>18</v>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>